--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129487D7-0451-534D-A10B-FBA8E7F4FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8D803-B808-ED4F-94AB-B3D189DF1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18980" windowHeight="18140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="460" windowWidth="23800" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="226">
   <si>
     <t>subsector</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Liquid Waste</t>
   </si>
   <si>
-    <t>annual_tonnes_collected_per_vehicle_waso</t>
-  </si>
-  <si>
     <t>ef_waso_biogas_kg_ch4_per_tonne_food</t>
   </si>
   <si>
@@ -204,45 +201,6 @@
   </si>
   <si>
     <t>ef_waso_incineration_kg_ch4_per_tonne_msw</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_chemical_industrial</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_food</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_glass</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_metal</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_nappies</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_other</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_paper</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_plastic</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_rubber_leather</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_sludge</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_textiles</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_wood</t>
-  </si>
-  <si>
-    <t>elasticity_waso_to_gdppc_yard</t>
   </si>
   <si>
     <t>frac_trww_tow_removed_treated_anaerobic</t>
@@ -458,9 +416,6 @@
     <t>physparam_waso_k_yard</t>
   </si>
   <si>
-    <t>qty_waso_initial_industrial_waste_kt_per_mmm_gdp</t>
-  </si>
-  <si>
     <t>qty_waso_initial_municipal_waste_tonne_per_capita</t>
   </si>
   <si>
@@ -660,6 +615,102 @@
   </si>
   <si>
     <t>density_wali_kg_n_per_m3_ww_industrial</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_chemical_industrial</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_food</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_glass</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_metal</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_nappies</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_other</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_paper</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_plastic</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_rubber_leather</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_sludge</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_textiles</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_wood</t>
+  </si>
+  <si>
+    <t>elasticity_waso_msw_to_gdppc_yard</t>
+  </si>
+  <si>
+    <t>qty_waso_industrial_waste_kt_per_mmm_gdp</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_chemical_industrial</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_food</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_glass</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_metal</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_nappies</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_other</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_paper</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_plastic</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_rubber_leather</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_sludge</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_textiles</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_wood</t>
+  </si>
+  <si>
+    <t>factor_waso_waste_per_capita_scalar_yard</t>
+  </si>
+  <si>
+    <t>qty_waso_annual_waste_collected_tonne_per_vehicle</t>
+  </si>
+  <si>
+    <t>frac_waso_compost_food</t>
+  </si>
+  <si>
+    <t>frac_waso_compost_yard</t>
+  </si>
+  <si>
+    <t>frac_waso_biogas_food</t>
+  </si>
+  <si>
+    <t>frac_waso_biogas_yard</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS162"/>
+  <dimension ref="A1:AS179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1272,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1343,7 +1394,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H3">
         <v>0.01</v>
@@ -1465,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1587,7 +1638,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1709,7 +1760,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1831,7 +1882,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1953,7 +2004,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="H8">
         <v>4.2000000000000003E-2</v>
@@ -2075,7 +2126,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H9">
         <v>4.2000000000000003E-2</v>
@@ -2197,7 +2248,7 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>0.56999999999999995</v>
@@ -2319,7 +2370,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>0.56999999999999995</v>
@@ -2441,7 +2492,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>0.56999999999999995</v>
@@ -2563,7 +2614,7 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>0.56999999999999995</v>
@@ -2685,7 +2736,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14">
         <v>0.56999999999999995</v>
@@ -2807,7 +2858,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>0.56999999999999995</v>
@@ -2929,7 +2980,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H16">
         <v>0.8</v>
@@ -3051,7 +3102,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H17">
         <v>0.8</v>
@@ -3173,7 +3224,7 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H18">
         <v>0.8</v>
@@ -3295,7 +3346,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H19">
         <v>0.8</v>
@@ -3417,7 +3468,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H20">
         <v>0.8</v>
@@ -3539,7 +3590,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H21">
         <v>0.8</v>
@@ -3661,7 +3712,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H22">
         <v>0.8</v>
@@ -3783,7 +3834,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H23">
         <v>0.8</v>
@@ -3905,7 +3956,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="H24">
         <v>0.8</v>
@@ -4027,7 +4078,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H25">
         <v>0.95</v>
@@ -4149,7 +4200,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H26">
         <v>0.8</v>
@@ -4271,7 +4322,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H27">
         <v>0.8</v>
@@ -4393,7 +4444,7 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H28">
         <v>0.8</v>
@@ -4515,7 +4566,7 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29">
         <v>0.8</v>
@@ -4637,7 +4688,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30">
         <v>0.8</v>
@@ -4759,7 +4810,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4881,7 +4932,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4890,112 +4941,112 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="M32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="N32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="O32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="P32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="R32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="S32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="T32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="U32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="V32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="W32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="X32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Y32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Z32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AA32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AB32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AC32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AD32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AE32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AF32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AG32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AH32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AI32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AJ32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AK32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AL32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AM32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AN32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AO32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AP32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AQ32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AR32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AS32">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
@@ -5003,7 +5054,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -5012,112 +5063,112 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="N33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="O33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Q33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="R33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="S33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="U33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="V33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="W33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Y33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Z33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AA33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AB33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AC33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AD33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AE33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AG33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AH33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AI33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AJ33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AK33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AL33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AM33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AN33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AO33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AP33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AQ33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AR33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AS33">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
@@ -5125,7 +5176,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -5134,112 +5185,112 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="N34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="O34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Q34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="R34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="S34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="U34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="V34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="W34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Y34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Z34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AA34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AB34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AC34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AD34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AE34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AG34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AH34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AI34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AJ34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AK34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AL34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AM34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AN34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AO34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AP34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AQ34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AR34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AS34">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
@@ -5247,7 +5298,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -5256,112 +5307,112 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="R35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="S35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="T35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="U35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="V35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="W35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="X35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Y35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Z35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AA35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AB35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AC35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AD35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AE35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AF35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AG35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AH35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AI35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AJ35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AK35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AL35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AM35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AN35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AO35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AP35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AQ35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AR35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AS35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
@@ -5369,7 +5420,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -5378,112 +5429,112 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="R36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="S36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="T36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="U36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="V36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="W36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="X36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Y36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Z36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AA36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AB36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AC36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AD36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AE36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AF36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AG36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AH36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AI36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AJ36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AK36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AL36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AM36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AN36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AO36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AP36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AQ36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AR36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AS36">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
@@ -5491,7 +5542,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -5500,112 +5551,112 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="K37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="L37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="M37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="N37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="O37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="P37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="Q37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="R37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="S37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="T37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="U37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="V37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="W37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="X37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="Y37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="Z37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AA37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AB37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AC37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AD37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AE37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AF37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AG37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AH37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AI37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AJ37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AK37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AL37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AM37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AN37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AO37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AP37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AQ37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AR37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="AS37">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
@@ -5613,7 +5664,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -5622,112 +5673,112 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="N38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="O38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Q38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="R38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="S38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="U38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="V38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="W38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Y38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Z38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AA38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AB38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AC38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AD38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AE38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AG38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AH38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AI38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AJ38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AK38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AL38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AM38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AN38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AO38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AP38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AQ38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AR38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AS38">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.2">
@@ -5735,7 +5786,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -5744,112 +5795,112 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="N39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="O39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Q39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="R39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="S39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="U39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="V39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="W39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Y39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Z39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AA39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AB39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AC39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AD39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AE39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AF39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AG39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AH39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AI39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AJ39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AK39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AL39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AM39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AN39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AO39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AP39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AQ39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AR39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AS39">
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.2">
@@ -5857,7 +5908,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5979,7 +6030,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -5988,112 +6039,112 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="R41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="S41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="T41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="U41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="V41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="W41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="X41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Y41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Z41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AA41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AB41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AC41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AD41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AE41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AF41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AG41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AH41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AI41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AJ41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AK41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AL41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AM41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AN41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AO41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AP41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AQ41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AR41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AS41">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.2">
@@ -6101,7 +6152,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6110,112 +6161,112 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="M42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="N42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="O42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="P42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="R42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="S42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="T42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="U42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="V42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="W42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="X42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Y42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Z42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AA42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AB42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AC42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AD42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AE42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AF42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AG42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AH42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AI42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AJ42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AK42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AL42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AM42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AN42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AO42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AP42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AQ42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AR42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AS42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.2">
@@ -6223,7 +6274,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -6232,112 +6283,112 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="M43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="N43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="O43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="P43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="R43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="S43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="T43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="U43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="V43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="W43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="X43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Y43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Z43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AA43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AB43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AC43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AD43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AE43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AF43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AG43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AH43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AI43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AJ43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AK43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AL43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AM43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AN43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AO43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AP43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AQ43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AR43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AS43">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.2">
@@ -6345,7 +6396,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H44">
         <v>0.2</v>
@@ -6467,7 +6518,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H45">
         <v>0.34899999999999998</v>
@@ -6589,7 +6640,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H46">
         <v>0.34899999999999998</v>
@@ -6711,7 +6762,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H47">
         <v>0.11700000000000001</v>
@@ -6833,7 +6884,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="H48">
         <v>0.11700000000000001</v>
@@ -6955,7 +7006,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H49">
         <v>0.8</v>
@@ -7077,7 +7128,7 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H50">
         <v>0.8</v>
@@ -7199,7 +7250,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H51">
         <v>0.8</v>
@@ -7321,7 +7372,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -7443,7 +7494,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -7565,7 +7616,7 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7687,7 +7738,7 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -7809,7 +7860,7 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -7931,7 +7982,7 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -8053,7 +8104,7 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -8175,7 +8226,7 @@
         <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -8297,7 +8348,7 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -8419,7 +8470,7 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -8541,7 +8592,7 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -8663,7 +8714,7 @@
         <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -8785,7 +8836,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -8907,7 +8958,7 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -9029,7 +9080,7 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -9151,7 +9202,7 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -9273,7 +9324,7 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -9395,7 +9446,7 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -9517,7 +9568,7 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -9639,7 +9690,7 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -9761,7 +9812,7 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -9883,7 +9934,7 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -10005,7 +10056,7 @@
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -10127,7 +10178,7 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -10249,7 +10300,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -10371,7 +10422,7 @@
         <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -10493,7 +10544,7 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -10615,7 +10666,7 @@
         <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -10737,7 +10788,7 @@
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -10859,7 +10910,7 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -10981,7 +11032,7 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -11103,7 +11154,7 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -11225,7 +11276,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -11347,7 +11398,7 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -11469,7 +11520,7 @@
         <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -11591,7 +11642,7 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -11713,7 +11764,7 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -11835,7 +11886,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -11957,7 +12008,7 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -12079,7 +12130,7 @@
         <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -12201,7 +12252,7 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -12323,7 +12374,7 @@
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -12445,7 +12496,7 @@
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -12567,7 +12618,7 @@
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -12689,7 +12740,7 @@
         <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -12811,7 +12862,7 @@
         <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -12933,7 +12984,7 @@
         <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -13055,7 +13106,7 @@
         <v>45</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -13177,7 +13228,7 @@
         <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -13299,7 +13350,7 @@
         <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -13421,7 +13472,7 @@
         <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -13543,7 +13594,7 @@
         <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -13665,7 +13716,7 @@
         <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -13787,7 +13838,7 @@
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -13909,7 +13960,7 @@
         <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -14031,7 +14082,7 @@
         <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -14153,7 +14204,7 @@
         <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -14275,7 +14326,7 @@
         <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -14397,7 +14448,7 @@
         <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -14519,7 +14570,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -14641,7 +14692,7 @@
         <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -14763,7 +14814,7 @@
         <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -14885,7 +14936,7 @@
         <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -15007,7 +15058,7 @@
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H115">
         <v>0.94736842105263164</v>
@@ -15129,7 +15180,7 @@
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H116">
         <v>0.94736842105263164</v>
@@ -15251,7 +15302,7 @@
         <v>47</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H117">
         <v>0.8</v>
@@ -15373,7 +15424,7 @@
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -15495,7 +15546,7 @@
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -15617,7 +15668,7 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H120">
         <v>0.14000000000000001</v>
@@ -15739,7 +15790,7 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H121">
         <v>0.14000000000000001</v>
@@ -15861,7 +15912,7 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -15983,7 +16034,7 @@
         <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -16105,7 +16156,7 @@
         <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H124">
         <v>0.8</v>
@@ -16227,7 +16278,7 @@
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H125">
         <v>0.76</v>
@@ -16349,7 +16400,7 @@
         <v>46</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H126">
         <v>0.46</v>
@@ -16471,7 +16522,7 @@
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H127">
         <v>0.8</v>
@@ -16593,7 +16644,7 @@
         <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="H128">
         <v>0.8</v>
@@ -16715,7 +16766,7 @@
         <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H129">
         <v>0.78</v>
@@ -16837,7 +16888,7 @@
         <v>47</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H130">
         <v>0.37</v>
@@ -16959,7 +17010,7 @@
         <v>47</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -17081,7 +17132,7 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H132" s="2">
         <v>0.85</v>
@@ -17203,7 +17254,7 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H133" s="2">
         <v>0.53</v>
@@ -17325,7 +17376,7 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -17447,7 +17498,7 @@
         <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -17569,7 +17620,7 @@
         <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="H136" s="2">
         <v>0.78</v>
@@ -17691,7 +17742,7 @@
         <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -17813,7 +17864,7 @@
         <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H138" s="2">
         <v>0.83</v>
@@ -17935,7 +17986,7 @@
         <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -18057,7 +18108,7 @@
         <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -18179,7 +18230,7 @@
         <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H141" s="2">
         <v>0.53</v>
@@ -18301,7 +18352,7 @@
         <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H142" s="2">
         <v>0.83</v>
@@ -18423,7 +18474,7 @@
         <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H143" s="2">
         <v>0.71</v>
@@ -18545,7 +18596,7 @@
         <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H144" s="2">
         <v>0.78</v>
@@ -18667,7 +18718,7 @@
         <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H145">
         <v>0.8</v>
@@ -18789,7 +18840,7 @@
         <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H146">
         <v>0.8</v>
@@ -18911,7 +18962,7 @@
         <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="H147">
         <v>0.8</v>
@@ -19033,7 +19084,7 @@
         <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -19042,112 +19093,112 @@
         <v>1</v>
       </c>
       <c r="J148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Y148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AA148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AE148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AH148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AI148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AJ148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AK148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AL148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AM148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AN148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AO148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AP148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AQ148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AR148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AS148" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:45" x14ac:dyDescent="0.2">
@@ -19155,7 +19206,7 @@
         <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -19164,112 +19215,112 @@
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="K149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="M149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="N149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="O149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="P149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="Q149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="R149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="S149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="T149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="U149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="V149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="W149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="X149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="Y149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="Z149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AA149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AB149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AC149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AD149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AE149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AF149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AG149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AH149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AI149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AJ149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AK149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AL149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AM149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AN149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AO149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AP149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AQ149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AR149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AS149">
-        <v>0.49</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:45" x14ac:dyDescent="0.2">
@@ -19277,7 +19328,7 @@
         <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -19399,7 +19450,7 @@
         <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H151">
         <v>0.8</v>
@@ -19521,7 +19572,7 @@
         <v>47</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -19643,7 +19694,7 @@
         <v>47</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -19765,7 +19816,7 @@
         <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -19887,7 +19938,7 @@
         <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H155">
         <v>0.11600000000000001</v>
@@ -20009,7 +20060,7 @@
         <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H156">
         <v>0.11600000000000001</v>
@@ -20131,7 +20182,7 @@
         <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H157">
         <v>0.58299999999999996</v>
@@ -20253,7 +20304,7 @@
         <v>46</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H158">
         <v>0.58299999999999996</v>
@@ -20375,7 +20426,7 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H159">
         <v>0.67</v>
@@ -20497,7 +20548,7 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -20619,7 +20670,7 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -20741,7 +20792,7 @@
         <v>47</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H162">
         <v>0.5</v>
@@ -20856,6 +20907,2080 @@
       </c>
       <c r="AS162">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" t="s">
+        <v>208</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163">
+        <v>1</v>
+      </c>
+      <c r="Q163">
+        <v>1</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>1</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="W163">
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <v>1</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="Z163">
+        <v>1</v>
+      </c>
+      <c r="AA163">
+        <v>1</v>
+      </c>
+      <c r="AB163">
+        <v>1</v>
+      </c>
+      <c r="AC163">
+        <v>1</v>
+      </c>
+      <c r="AD163">
+        <v>1</v>
+      </c>
+      <c r="AE163">
+        <v>1</v>
+      </c>
+      <c r="AF163">
+        <v>1</v>
+      </c>
+      <c r="AG163">
+        <v>1</v>
+      </c>
+      <c r="AH163">
+        <v>1</v>
+      </c>
+      <c r="AI163">
+        <v>1</v>
+      </c>
+      <c r="AJ163">
+        <v>1</v>
+      </c>
+      <c r="AK163">
+        <v>1</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
+        <v>1</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
+        <v>1</v>
+      </c>
+      <c r="AP163">
+        <v>1</v>
+      </c>
+      <c r="AQ163">
+        <v>1</v>
+      </c>
+      <c r="AR163">
+        <v>1</v>
+      </c>
+      <c r="AS163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" t="s">
+        <v>209</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164">
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+      <c r="S164">
+        <v>1</v>
+      </c>
+      <c r="T164">
+        <v>1</v>
+      </c>
+      <c r="U164">
+        <v>1</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>1</v>
+      </c>
+      <c r="X164">
+        <v>1</v>
+      </c>
+      <c r="Y164">
+        <v>1</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>1</v>
+      </c>
+      <c r="AB164">
+        <v>1</v>
+      </c>
+      <c r="AC164">
+        <v>1</v>
+      </c>
+      <c r="AD164">
+        <v>1</v>
+      </c>
+      <c r="AE164">
+        <v>1</v>
+      </c>
+      <c r="AF164">
+        <v>1</v>
+      </c>
+      <c r="AG164">
+        <v>1</v>
+      </c>
+      <c r="AH164">
+        <v>1</v>
+      </c>
+      <c r="AI164">
+        <v>1</v>
+      </c>
+      <c r="AJ164">
+        <v>1</v>
+      </c>
+      <c r="AK164">
+        <v>1</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
+        <v>1</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
+        <v>1</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
+      <c r="AQ164">
+        <v>1</v>
+      </c>
+      <c r="AR164">
+        <v>1</v>
+      </c>
+      <c r="AS164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>210</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>1</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>1</v>
+      </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
+      <c r="Y165">
+        <v>1</v>
+      </c>
+      <c r="Z165">
+        <v>1</v>
+      </c>
+      <c r="AA165">
+        <v>1</v>
+      </c>
+      <c r="AB165">
+        <v>1</v>
+      </c>
+      <c r="AC165">
+        <v>1</v>
+      </c>
+      <c r="AD165">
+        <v>1</v>
+      </c>
+      <c r="AE165">
+        <v>1</v>
+      </c>
+      <c r="AF165">
+        <v>1</v>
+      </c>
+      <c r="AG165">
+        <v>1</v>
+      </c>
+      <c r="AH165">
+        <v>1</v>
+      </c>
+      <c r="AI165">
+        <v>1</v>
+      </c>
+      <c r="AJ165">
+        <v>1</v>
+      </c>
+      <c r="AK165">
+        <v>1</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
+        <v>1</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
+        <v>1</v>
+      </c>
+      <c r="AP165">
+        <v>1</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>1</v>
+      </c>
+      <c r="AS165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>211</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>1</v>
+      </c>
+      <c r="T166">
+        <v>1</v>
+      </c>
+      <c r="U166">
+        <v>1</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="W166">
+        <v>1</v>
+      </c>
+      <c r="X166">
+        <v>1</v>
+      </c>
+      <c r="Y166">
+        <v>1</v>
+      </c>
+      <c r="Z166">
+        <v>1</v>
+      </c>
+      <c r="AA166">
+        <v>1</v>
+      </c>
+      <c r="AB166">
+        <v>1</v>
+      </c>
+      <c r="AC166">
+        <v>1</v>
+      </c>
+      <c r="AD166">
+        <v>1</v>
+      </c>
+      <c r="AE166">
+        <v>1</v>
+      </c>
+      <c r="AF166">
+        <v>1</v>
+      </c>
+      <c r="AG166">
+        <v>1</v>
+      </c>
+      <c r="AH166">
+        <v>1</v>
+      </c>
+      <c r="AI166">
+        <v>1</v>
+      </c>
+      <c r="AJ166">
+        <v>1</v>
+      </c>
+      <c r="AK166">
+        <v>1</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
+        <v>1</v>
+      </c>
+      <c r="AN166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
+        <v>1</v>
+      </c>
+      <c r="AP166">
+        <v>1</v>
+      </c>
+      <c r="AQ166">
+        <v>1</v>
+      </c>
+      <c r="AR166">
+        <v>1</v>
+      </c>
+      <c r="AS166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>212</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>1</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
+      <c r="W167">
+        <v>1</v>
+      </c>
+      <c r="X167">
+        <v>1</v>
+      </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>1</v>
+      </c>
+      <c r="AB167">
+        <v>1</v>
+      </c>
+      <c r="AC167">
+        <v>1</v>
+      </c>
+      <c r="AD167">
+        <v>1</v>
+      </c>
+      <c r="AE167">
+        <v>1</v>
+      </c>
+      <c r="AF167">
+        <v>1</v>
+      </c>
+      <c r="AG167">
+        <v>1</v>
+      </c>
+      <c r="AH167">
+        <v>1</v>
+      </c>
+      <c r="AI167">
+        <v>1</v>
+      </c>
+      <c r="AJ167">
+        <v>1</v>
+      </c>
+      <c r="AK167">
+        <v>1</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
+        <v>1</v>
+      </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
+        <v>1</v>
+      </c>
+      <c r="AP167">
+        <v>1</v>
+      </c>
+      <c r="AQ167">
+        <v>1</v>
+      </c>
+      <c r="AR167">
+        <v>1</v>
+      </c>
+      <c r="AS167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" t="s">
+        <v>213</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168">
+        <v>1</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>1</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <v>1</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>1</v>
+      </c>
+      <c r="Y168">
+        <v>1</v>
+      </c>
+      <c r="Z168">
+        <v>1</v>
+      </c>
+      <c r="AA168">
+        <v>1</v>
+      </c>
+      <c r="AB168">
+        <v>1</v>
+      </c>
+      <c r="AC168">
+        <v>1</v>
+      </c>
+      <c r="AD168">
+        <v>1</v>
+      </c>
+      <c r="AE168">
+        <v>1</v>
+      </c>
+      <c r="AF168">
+        <v>1</v>
+      </c>
+      <c r="AG168">
+        <v>1</v>
+      </c>
+      <c r="AH168">
+        <v>1</v>
+      </c>
+      <c r="AI168">
+        <v>1</v>
+      </c>
+      <c r="AJ168">
+        <v>1</v>
+      </c>
+      <c r="AK168">
+        <v>1</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
+        <v>1</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>1</v>
+      </c>
+      <c r="AP168">
+        <v>1</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1</v>
+      </c>
+      <c r="AS168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>214</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+      <c r="S169">
+        <v>1</v>
+      </c>
+      <c r="T169">
+        <v>1</v>
+      </c>
+      <c r="U169">
+        <v>1</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+      <c r="W169">
+        <v>1</v>
+      </c>
+      <c r="X169">
+        <v>1</v>
+      </c>
+      <c r="Y169">
+        <v>1</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>1</v>
+      </c>
+      <c r="AB169">
+        <v>1</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+      <c r="AD169">
+        <v>1</v>
+      </c>
+      <c r="AE169">
+        <v>1</v>
+      </c>
+      <c r="AF169">
+        <v>1</v>
+      </c>
+      <c r="AG169">
+        <v>1</v>
+      </c>
+      <c r="AH169">
+        <v>1</v>
+      </c>
+      <c r="AI169">
+        <v>1</v>
+      </c>
+      <c r="AJ169">
+        <v>1</v>
+      </c>
+      <c r="AK169">
+        <v>1</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
+        <v>1</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>1</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>1</v>
+      </c>
+      <c r="AS169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" t="s">
+        <v>215</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>1</v>
+      </c>
+      <c r="Q170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+      <c r="T170">
+        <v>1</v>
+      </c>
+      <c r="U170">
+        <v>1</v>
+      </c>
+      <c r="V170">
+        <v>1</v>
+      </c>
+      <c r="W170">
+        <v>1</v>
+      </c>
+      <c r="X170">
+        <v>1</v>
+      </c>
+      <c r="Y170">
+        <v>1</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>1</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
+      <c r="AC170">
+        <v>1</v>
+      </c>
+      <c r="AD170">
+        <v>1</v>
+      </c>
+      <c r="AE170">
+        <v>1</v>
+      </c>
+      <c r="AF170">
+        <v>1</v>
+      </c>
+      <c r="AG170">
+        <v>1</v>
+      </c>
+      <c r="AH170">
+        <v>1</v>
+      </c>
+      <c r="AI170">
+        <v>1</v>
+      </c>
+      <c r="AJ170">
+        <v>1</v>
+      </c>
+      <c r="AK170">
+        <v>1</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
+        <v>1</v>
+      </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
+        <v>1</v>
+      </c>
+      <c r="AP170">
+        <v>1</v>
+      </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" t="s">
+        <v>216</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171">
+        <v>1</v>
+      </c>
+      <c r="T171">
+        <v>1</v>
+      </c>
+      <c r="U171">
+        <v>1</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+      <c r="W171">
+        <v>1</v>
+      </c>
+      <c r="X171">
+        <v>1</v>
+      </c>
+      <c r="Y171">
+        <v>1</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <v>1</v>
+      </c>
+      <c r="AB171">
+        <v>1</v>
+      </c>
+      <c r="AC171">
+        <v>1</v>
+      </c>
+      <c r="AD171">
+        <v>1</v>
+      </c>
+      <c r="AE171">
+        <v>1</v>
+      </c>
+      <c r="AF171">
+        <v>1</v>
+      </c>
+      <c r="AG171">
+        <v>1</v>
+      </c>
+      <c r="AH171">
+        <v>1</v>
+      </c>
+      <c r="AI171">
+        <v>1</v>
+      </c>
+      <c r="AJ171">
+        <v>1</v>
+      </c>
+      <c r="AK171">
+        <v>1</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
+        <v>1</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>1</v>
+      </c>
+      <c r="AQ171">
+        <v>1</v>
+      </c>
+      <c r="AR171">
+        <v>1</v>
+      </c>
+      <c r="AS171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" t="s">
+        <v>217</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>1</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+      <c r="T172">
+        <v>1</v>
+      </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="V172">
+        <v>1</v>
+      </c>
+      <c r="W172">
+        <v>1</v>
+      </c>
+      <c r="X172">
+        <v>1</v>
+      </c>
+      <c r="Y172">
+        <v>1</v>
+      </c>
+      <c r="Z172">
+        <v>1</v>
+      </c>
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AB172">
+        <v>1</v>
+      </c>
+      <c r="AC172">
+        <v>1</v>
+      </c>
+      <c r="AD172">
+        <v>1</v>
+      </c>
+      <c r="AE172">
+        <v>1</v>
+      </c>
+      <c r="AF172">
+        <v>1</v>
+      </c>
+      <c r="AG172">
+        <v>1</v>
+      </c>
+      <c r="AH172">
+        <v>1</v>
+      </c>
+      <c r="AI172">
+        <v>1</v>
+      </c>
+      <c r="AJ172">
+        <v>1</v>
+      </c>
+      <c r="AK172">
+        <v>1</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
+        <v>1</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1</v>
+      </c>
+      <c r="AS172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" t="s">
+        <v>218</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173">
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>1</v>
+      </c>
+      <c r="T173">
+        <v>1</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
+      </c>
+      <c r="W173">
+        <v>1</v>
+      </c>
+      <c r="X173">
+        <v>1</v>
+      </c>
+      <c r="Y173">
+        <v>1</v>
+      </c>
+      <c r="Z173">
+        <v>1</v>
+      </c>
+      <c r="AA173">
+        <v>1</v>
+      </c>
+      <c r="AB173">
+        <v>1</v>
+      </c>
+      <c r="AC173">
+        <v>1</v>
+      </c>
+      <c r="AD173">
+        <v>1</v>
+      </c>
+      <c r="AE173">
+        <v>1</v>
+      </c>
+      <c r="AF173">
+        <v>1</v>
+      </c>
+      <c r="AG173">
+        <v>1</v>
+      </c>
+      <c r="AH173">
+        <v>1</v>
+      </c>
+      <c r="AI173">
+        <v>1</v>
+      </c>
+      <c r="AJ173">
+        <v>1</v>
+      </c>
+      <c r="AK173">
+        <v>1</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
+        <v>1</v>
+      </c>
+      <c r="AN173">
+        <v>1</v>
+      </c>
+      <c r="AO173">
+        <v>1</v>
+      </c>
+      <c r="AP173">
+        <v>1</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1</v>
+      </c>
+      <c r="AS173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>1</v>
+      </c>
+      <c r="T174">
+        <v>1</v>
+      </c>
+      <c r="U174">
+        <v>1</v>
+      </c>
+      <c r="V174">
+        <v>1</v>
+      </c>
+      <c r="W174">
+        <v>1</v>
+      </c>
+      <c r="X174">
+        <v>1</v>
+      </c>
+      <c r="Y174">
+        <v>1</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
+      </c>
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AB174">
+        <v>1</v>
+      </c>
+      <c r="AC174">
+        <v>1</v>
+      </c>
+      <c r="AD174">
+        <v>1</v>
+      </c>
+      <c r="AE174">
+        <v>1</v>
+      </c>
+      <c r="AF174">
+        <v>1</v>
+      </c>
+      <c r="AG174">
+        <v>1</v>
+      </c>
+      <c r="AH174">
+        <v>1</v>
+      </c>
+      <c r="AI174">
+        <v>1</v>
+      </c>
+      <c r="AJ174">
+        <v>1</v>
+      </c>
+      <c r="AK174">
+        <v>1</v>
+      </c>
+      <c r="AL174">
+        <v>1</v>
+      </c>
+      <c r="AM174">
+        <v>1</v>
+      </c>
+      <c r="AN174">
+        <v>1</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1</v>
+      </c>
+      <c r="AS174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B175" t="s">
+        <v>220</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+      <c r="T175">
+        <v>1</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+      <c r="W175">
+        <v>1</v>
+      </c>
+      <c r="X175">
+        <v>1</v>
+      </c>
+      <c r="Y175">
+        <v>1</v>
+      </c>
+      <c r="Z175">
+        <v>1</v>
+      </c>
+      <c r="AA175">
+        <v>1</v>
+      </c>
+      <c r="AB175">
+        <v>1</v>
+      </c>
+      <c r="AC175">
+        <v>1</v>
+      </c>
+      <c r="AD175">
+        <v>1</v>
+      </c>
+      <c r="AE175">
+        <v>1</v>
+      </c>
+      <c r="AF175">
+        <v>1</v>
+      </c>
+      <c r="AG175">
+        <v>1</v>
+      </c>
+      <c r="AH175">
+        <v>1</v>
+      </c>
+      <c r="AI175">
+        <v>1</v>
+      </c>
+      <c r="AJ175">
+        <v>1</v>
+      </c>
+      <c r="AK175">
+        <v>1</v>
+      </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
+      <c r="AM175">
+        <v>1</v>
+      </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1</v>
+      </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
+      <c r="AR175">
+        <v>1</v>
+      </c>
+      <c r="AS175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" t="s">
+        <v>222</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="T176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="U176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="W176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="X176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Z176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AA176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AC176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AD176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AE176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AF176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AG176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AH176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AI176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AJ176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AK176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AL176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AM176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AN176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AO176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AP176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AQ176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AR176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AS176">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="T177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="U177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="W177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="X177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Z177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AA177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AC177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AD177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AE177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AF177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AG177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AH177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AI177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AJ177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AK177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AL177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AM177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AN177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AO177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AP177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AQ177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AR177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AS177">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" t="s">
+        <v>224</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0.02</v>
+      </c>
+      <c r="K178">
+        <v>0.02</v>
+      </c>
+      <c r="L178">
+        <v>0.02</v>
+      </c>
+      <c r="M178">
+        <v>0.02</v>
+      </c>
+      <c r="N178">
+        <v>0.02</v>
+      </c>
+      <c r="O178">
+        <v>0.02</v>
+      </c>
+      <c r="P178">
+        <v>0.02</v>
+      </c>
+      <c r="Q178">
+        <v>0.02</v>
+      </c>
+      <c r="R178">
+        <v>0.02</v>
+      </c>
+      <c r="S178">
+        <v>0.02</v>
+      </c>
+      <c r="T178">
+        <v>0.02</v>
+      </c>
+      <c r="U178">
+        <v>0.02</v>
+      </c>
+      <c r="V178">
+        <v>0.02</v>
+      </c>
+      <c r="W178">
+        <v>0.02</v>
+      </c>
+      <c r="X178">
+        <v>0.02</v>
+      </c>
+      <c r="Y178">
+        <v>0.02</v>
+      </c>
+      <c r="Z178">
+        <v>0.02</v>
+      </c>
+      <c r="AA178">
+        <v>0.02</v>
+      </c>
+      <c r="AB178">
+        <v>0.02</v>
+      </c>
+      <c r="AC178">
+        <v>0.02</v>
+      </c>
+      <c r="AD178">
+        <v>0.02</v>
+      </c>
+      <c r="AE178">
+        <v>0.02</v>
+      </c>
+      <c r="AF178">
+        <v>0.02</v>
+      </c>
+      <c r="AG178">
+        <v>0.02</v>
+      </c>
+      <c r="AH178">
+        <v>0.02</v>
+      </c>
+      <c r="AI178">
+        <v>0.02</v>
+      </c>
+      <c r="AJ178">
+        <v>0.02</v>
+      </c>
+      <c r="AK178">
+        <v>0.02</v>
+      </c>
+      <c r="AL178">
+        <v>0.02</v>
+      </c>
+      <c r="AM178">
+        <v>0.02</v>
+      </c>
+      <c r="AN178">
+        <v>0.02</v>
+      </c>
+      <c r="AO178">
+        <v>0.02</v>
+      </c>
+      <c r="AP178">
+        <v>0.02</v>
+      </c>
+      <c r="AQ178">
+        <v>0.02</v>
+      </c>
+      <c r="AR178">
+        <v>0.02</v>
+      </c>
+      <c r="AS178">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="179" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" t="s">
+        <v>225</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0.02</v>
+      </c>
+      <c r="K179">
+        <v>0.02</v>
+      </c>
+      <c r="L179">
+        <v>0.02</v>
+      </c>
+      <c r="M179">
+        <v>0.02</v>
+      </c>
+      <c r="N179">
+        <v>0.02</v>
+      </c>
+      <c r="O179">
+        <v>0.02</v>
+      </c>
+      <c r="P179">
+        <v>0.02</v>
+      </c>
+      <c r="Q179">
+        <v>0.02</v>
+      </c>
+      <c r="R179">
+        <v>0.02</v>
+      </c>
+      <c r="S179">
+        <v>0.02</v>
+      </c>
+      <c r="T179">
+        <v>0.02</v>
+      </c>
+      <c r="U179">
+        <v>0.02</v>
+      </c>
+      <c r="V179">
+        <v>0.02</v>
+      </c>
+      <c r="W179">
+        <v>0.02</v>
+      </c>
+      <c r="X179">
+        <v>0.02</v>
+      </c>
+      <c r="Y179">
+        <v>0.02</v>
+      </c>
+      <c r="Z179">
+        <v>0.02</v>
+      </c>
+      <c r="AA179">
+        <v>0.02</v>
+      </c>
+      <c r="AB179">
+        <v>0.02</v>
+      </c>
+      <c r="AC179">
+        <v>0.02</v>
+      </c>
+      <c r="AD179">
+        <v>0.02</v>
+      </c>
+      <c r="AE179">
+        <v>0.02</v>
+      </c>
+      <c r="AF179">
+        <v>0.02</v>
+      </c>
+      <c r="AG179">
+        <v>0.02</v>
+      </c>
+      <c r="AH179">
+        <v>0.02</v>
+      </c>
+      <c r="AI179">
+        <v>0.02</v>
+      </c>
+      <c r="AJ179">
+        <v>0.02</v>
+      </c>
+      <c r="AK179">
+        <v>0.02</v>
+      </c>
+      <c r="AL179">
+        <v>0.02</v>
+      </c>
+      <c r="AM179">
+        <v>0.02</v>
+      </c>
+      <c r="AN179">
+        <v>0.02</v>
+      </c>
+      <c r="AO179">
+        <v>0.02</v>
+      </c>
+      <c r="AP179">
+        <v>0.02</v>
+      </c>
+      <c r="AQ179">
+        <v>0.02</v>
+      </c>
+      <c r="AR179">
+        <v>0.02</v>
+      </c>
+      <c r="AS179">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56AC3FA-50FA-684F-9B58-8D117015DCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD21C0-88EE-4645-9491-88DE616B7777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="3240" windowWidth="23800" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="460" windowWidth="34660" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23504,8 +23504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD21C0-88EE-4645-9491-88DE616B7777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD28AC6-2147-1849-BD96-BDBD791EAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="460" windowWidth="34660" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="1100" windowWidth="34660" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -1144,8 +1144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD28AC6-2147-1849-BD96-BDBD791EAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327E73F-875A-E94C-805F-4880973BA862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1100" windowWidth="34660" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="34660" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -1145,8 +1145,8 @@
   <dimension ref="A1:AS183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5078,10 +5078,10 @@
         <v>171</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J33">
         <v>0.06</v>
@@ -5200,10 +5200,10 @@
         <v>172</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J34">
         <v>0.15000000000000002</v>
@@ -5322,10 +5322,10 @@
         <v>173</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J35">
         <v>0.15000000000000002</v>
@@ -5444,10 +5444,10 @@
         <v>174</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J36">
         <v>0.03</v>
@@ -5566,10 +5566,10 @@
         <v>175</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J37">
         <v>0.03</v>
@@ -5688,10 +5688,10 @@
         <v>176</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J38">
         <v>0.24</v>
@@ -5810,10 +5810,10 @@
         <v>177</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J39">
         <v>0.15000000000000002</v>
@@ -5932,10 +5932,10 @@
         <v>178</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J40">
         <v>0.15000000000000002</v>
@@ -6176,10 +6176,10 @@
         <v>180</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J42">
         <v>0.03</v>
@@ -6298,10 +6298,10 @@
         <v>181</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J43">
         <v>0.06</v>
@@ -6420,10 +6420,10 @@
         <v>182</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J44">
         <v>0.06</v>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48973758-2C88-0B41-954C-11B453D951DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C0CD62-D00A-ED4B-A8C1-D905C15AAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="460" windowWidth="34660" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,8 +1178,8 @@
   <dimension ref="A1:AS194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O179" sqref="O179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013908B-3ED6-4A47-918A-171C4014E74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18375B37-C990-3F4B-B772-7561534F6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="460" windowWidth="15320" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="460" windowWidth="28960" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -1289,13 +1289,13 @@
   <dimension ref="A1:AS226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J192" sqref="J192"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="44" width="3.6640625" customWidth="1"/>
+    <col min="11" max="45" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18375B37-C990-3F4B-B772-7561534F6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DD241-A119-3B46-8E69-DEA6637EF5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="460" windowWidth="28960" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="460" windowWidth="28960" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -1288,9 +1288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS137" sqref="AS137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DD241-A119-3B46-8E69-DEA6637EF5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023094B-0165-E84D-8775-40A0407E713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8060" yWindow="460" windowWidth="28960" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,9 +1288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS137" sqref="AS137"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y142" sqref="Y142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ce_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023094B-0165-E84D-8775-40A0407E713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E61E5-4778-D147-921F-F95DBAB8689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="460" windowWidth="28960" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="28960" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -1289,8 +1289,8 @@
   <dimension ref="A1:AS226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="207" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y142" sqref="Y142"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
